--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,31 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>die</t>
   </si>
   <si>
     <t>war</t>
@@ -85,205 +76,178 @@
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>boost</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -641,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q61"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -713,10 +677,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -731,16 +695,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -760,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +742,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.875</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -878,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.84</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9375</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1010,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8888888888888888</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7077922077922078</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C10">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1042,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6363636363636364</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L11">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5333333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K12">
         <v>0.8518518518518519</v>
@@ -1210,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4761904761904762</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.85</v>
+        <v>0.796875</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4210526315789473</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>417</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.8461538461538461</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1274,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4166666666666667</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.8431372549019608</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1360,646 +1324,454 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3928571428571428</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>125</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="L16">
+        <v>92</v>
+      </c>
+      <c r="M16">
+        <v>92</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L17">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>39</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L18">
+        <v>107</v>
+      </c>
+      <c r="M18">
+        <v>107</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20">
+        <v>21</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>0.7413793103448276</v>
+      </c>
+      <c r="L21">
+        <v>43</v>
+      </c>
+      <c r="M21">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="L22">
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L23">
+        <v>78</v>
+      </c>
+      <c r="M23">
+        <v>78</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24">
+        <v>0.71875</v>
+      </c>
+      <c r="L24">
+        <v>115</v>
+      </c>
+      <c r="M24">
+        <v>115</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>11</v>
       </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>17</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L16">
-        <v>43</v>
-      </c>
-      <c r="M16">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K27">
+        <v>0.6507936507936508</v>
+      </c>
+      <c r="L27">
+        <v>41</v>
+      </c>
+      <c r="M27">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>0.3562231759656652</v>
-      </c>
-      <c r="C17">
-        <v>83</v>
-      </c>
-      <c r="D17">
-        <v>83</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>150</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L17">
-        <v>45</v>
-      </c>
-      <c r="M17">
-        <v>45</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L28">
+        <v>59</v>
+      </c>
+      <c r="M28">
+        <v>59</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L29">
+        <v>29</v>
+      </c>
+      <c r="M29">
+        <v>29</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>18</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L18">
-        <v>10</v>
-      </c>
-      <c r="M18">
-        <v>10</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2758620689655172</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>21</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>64</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L20">
-        <v>9</v>
-      </c>
-      <c r="M20">
-        <v>9</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>64</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L21">
-        <v>47</v>
-      </c>
-      <c r="M21">
-        <v>47</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1521739130434783</v>
-      </c>
-      <c r="C22">
-        <v>7</v>
-      </c>
-      <c r="D22">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>39</v>
-      </c>
-      <c r="J22" s="1" t="s">
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K22">
-        <v>0.8035714285714286</v>
-      </c>
-      <c r="L22">
-        <v>45</v>
-      </c>
-      <c r="M22">
-        <v>45</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>30</v>
+      </c>
+      <c r="M30">
+        <v>30</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L31">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C23">
+      <c r="M31">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L32">
         <v>15</v>
       </c>
-      <c r="D23">
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>95</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K23">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L23">
-        <v>7</v>
-      </c>
-      <c r="M23">
-        <v>7</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.04301075268817205</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>178</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K27">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="L27">
-        <v>17</v>
-      </c>
-      <c r="M27">
-        <v>17</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K28">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
-      <c r="M28">
-        <v>18</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29">
-        <v>0.68</v>
-      </c>
-      <c r="L29">
-        <v>17</v>
-      </c>
-      <c r="M29">
-        <v>17</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L30">
-        <v>49</v>
-      </c>
-      <c r="M30">
-        <v>49</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L31">
-        <v>22</v>
-      </c>
-      <c r="M31">
-        <v>22</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L32">
-        <v>11</v>
-      </c>
-      <c r="M32">
-        <v>11</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2010,21 +1782,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.6410256410256411</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2036,21 +1808,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.64</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2062,21 +1834,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.6056338028169014</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L35">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="M35">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2088,15 +1860,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>84</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.5909090909090909</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
         <v>13</v>
@@ -2114,21 +1886,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.5882352941176471</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L37">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2140,47 +1912,47 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5862068965517241</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L38">
+        <v>14</v>
+      </c>
+      <c r="M38">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>17</v>
-      </c>
-      <c r="M38">
-        <v>17</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5833333333333334</v>
+        <v>0.45</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2192,21 +1964,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5789473684210527</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L40">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2218,21 +1990,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2244,21 +2016,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5116279069767442</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L42">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2270,21 +2042,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2296,21 +2068,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5</v>
+        <v>0.4135593220338983</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2322,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>14</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.3640167364016736</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="M45">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2348,21 +2120,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>7</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.4930555555555556</v>
+        <v>0.35</v>
       </c>
       <c r="L46">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2374,21 +2146,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.4857142857142857</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2400,21 +2172,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.4347826086956522</v>
+        <v>0.34375</v>
       </c>
       <c r="L48">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2426,21 +2198,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.4</v>
+        <v>0.3255813953488372</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2452,21 +2224,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2478,21 +2250,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.34375</v>
+        <v>0.03125</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2504,47 +2276,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>403</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.3333333333333333</v>
+        <v>0.02465331278890601</v>
       </c>
       <c r="L52">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>16</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.3043478260869565</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2556,21 +2328,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>16</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.2702702702702703</v>
+        <v>0.02330743618201998</v>
       </c>
       <c r="L54">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M54">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2582,189 +2354,85 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>880</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.2631578947368421</v>
+        <v>0.01493930905695612</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>28</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.2258064516129032</v>
+        <v>0.009664948453608248</v>
       </c>
       <c r="L56">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="K57">
-        <v>0.03827751196172249</v>
+        <v>0.005317485142320926</v>
       </c>
       <c r="L57">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K58">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="L58">
-        <v>12</v>
-      </c>
-      <c r="M58">
-        <v>12</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K59">
-        <v>0.01951219512195122</v>
-      </c>
-      <c r="L59">
-        <v>8</v>
-      </c>
-      <c r="M59">
-        <v>8</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60">
-        <v>0.007123775601068566</v>
-      </c>
-      <c r="L60">
-        <v>8</v>
-      </c>
-      <c r="M60">
-        <v>8</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61">
-        <v>0.004478566858605247</v>
-      </c>
-      <c r="L61">
-        <v>7</v>
-      </c>
-      <c r="M61">
-        <v>8</v>
-      </c>
-      <c r="N61">
-        <v>0.88</v>
-      </c>
-      <c r="O61">
-        <v>0.12</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1556</v>
+        <v>3180</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.002_scores.xlsx
@@ -43,33 +43,27 @@
     <t>killed</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -82,25 +76,34 @@
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>beauty</t>
+    <t>enjoy</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amazing</t>
+    <t>friend</t>
   </si>
   <si>
     <t>interesting</t>
@@ -109,136 +112,133 @@
     <t>great</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>ready</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>join</t>
+    <t>increased</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>19</t>
@@ -605,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +613,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9333333333333333</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,10 +742,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.9615384615384616</v>
@@ -774,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +824,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6923076923076923</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -842,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +874,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6551724137931034</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8913043478260869</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +924,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6027397260273972</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C8">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +974,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8787878787878788</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1045,16 +1045,16 @@
         <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1074,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3513513513513514</v>
+        <v>0.24</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8536585365853658</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L11">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3421052631578947</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>415</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8518518518518519</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1174,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2533333333333334</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1192,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.796875</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1224,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1918604651162791</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C14">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1242,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.7894736842105263</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,87 +1274,63 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1851851851851852</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C15">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>236</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.8125</v>
+      </c>
+      <c r="L15">
+        <v>104</v>
+      </c>
+      <c r="M15">
+        <v>104</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D15">
-        <v>35</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>154</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.1610738255033557</v>
-      </c>
-      <c r="C16">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>125</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K16">
-        <v>0.7666666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L16">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.7647058823529411</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.7535211267605634</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1444,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>0.75</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1470,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.7413793103448276</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1496,21 +1472,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.7391304347826086</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1522,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.7358490566037735</v>
+        <v>0.71875</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="M23">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1548,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.71875</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L24">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="M24">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1574,12 +1550,12 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>0.7037037037037037</v>
@@ -1605,16 +1581,16 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1626,12 +1602,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
         <v>0.6507936507936508</v>
@@ -1657,16 +1633,16 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6276595744680851</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1678,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6170212765957447</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1704,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.6</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1730,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1761,16 +1737,16 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5357142857142857</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1782,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1808,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5221932114882507</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L34">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M34">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1834,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4764705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1860,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>178</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1886,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4520547945205479</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L37">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M37">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1912,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.4516129032258064</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L38">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="M38">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1938,12 +1914,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39">
         <v>0.45</v>
@@ -1969,16 +1945,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.4382022471910113</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1990,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4285714285714285</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2016,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.4222222222222222</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2042,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.4153846153846154</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2068,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.4135593220338983</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L44">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="M44">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2094,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.3640167364016736</v>
+        <v>0.4</v>
       </c>
       <c r="L45">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2120,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.35</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2146,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>26</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.3461538461538461</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2172,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2198,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.3255813953488372</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2224,12 +2200,12 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K50">
         <v>0.2</v>
@@ -2255,16 +2231,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.03125</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2276,47 +2252,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.02465331278890601</v>
+        <v>0.03365384615384615</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>633</v>
+        <v>402</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.02460850111856823</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2328,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.02330743618201998</v>
+        <v>0.01775804661487236</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2354,85 +2330,111 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>880</v>
+        <v>885</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.01493930905695612</v>
+        <v>0.01549586776859504</v>
       </c>
       <c r="L55">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>2110</v>
+        <v>953</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.009664948453608248</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L56">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M56">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N56">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O56">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3074</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57">
+        <v>0.009011908593498551</v>
+      </c>
+      <c r="L57">
+        <v>28</v>
+      </c>
+      <c r="M57">
+        <v>28</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K57">
-        <v>0.005317485142320926</v>
-      </c>
-      <c r="L57">
-        <v>17</v>
-      </c>
-      <c r="M57">
-        <v>21</v>
-      </c>
-      <c r="N57">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O57">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>3180</v>
+      <c r="K58">
+        <v>0.004067584480600751</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>18</v>
+      </c>
+      <c r="N58">
+        <v>0.72</v>
+      </c>
+      <c r="O58">
+        <v>0.28</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3183</v>
       </c>
     </row>
   </sheetData>
